--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,7 +489,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>8.458355278595649</v>
+        <v>8.458355278595931</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
@@ -503,7 +503,7 @@
         <v>-0.007</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10.23046018877216</v>
+        <v>-10.22896086184152</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
     </row>
@@ -515,7 +515,7 @@
         <v>0.198</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8.522421622475724</v>
+        <v>8.522421622476013</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
@@ -529,7 +529,7 @@
         <v>-0.008</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10.05457505366689</v>
+        <v>-10.05290558284226</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
     </row>
@@ -541,7 +541,7 @@
         <v>0.196</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>8.483010517861899</v>
+        <v>8.483010517862189</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
@@ -555,7 +555,7 @@
         <v>-0.007</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-9.831292204437338</v>
+        <v>-9.831292204437668</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
     </row>
@@ -567,7 +567,7 @@
         <v>0.194</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8.392600241338508</v>
+        <v>8.392600241338785</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
@@ -581,7 +581,7 @@
         <v>-0.007</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-9.575707822972211</v>
+        <v>-9.575707822972536</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
     </row>
@@ -593,7 +593,7 @@
         <v>0.192</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.228647590563275</v>
+        <v>8.228647590563556</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
@@ -607,7 +607,7 @@
         <v>-0.006</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-9.277499618046161</v>
+        <v>-9.277499618046479</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
     </row>
@@ -619,7 +619,7 @@
         <v>0.19</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.029423058995789</v>
+        <v>8.029423058996057</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
@@ -633,7 +633,7 @@
         <v>-0.006</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-8.931072139321218</v>
+        <v>-8.931072139321518</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
     </row>
@@ -645,7 +645,7 @@
         <v>0.188</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.746910202247782</v>
+        <v>7.746910202248039</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
@@ -659,7 +659,7 @@
         <v>-0.005</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-8.5319080994527</v>
+        <v>-8.531908099452991</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
     </row>
@@ -671,7 +671,7 @@
         <v>0.186</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.41830383117577</v>
+        <v>7.418303831176019</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
@@ -685,7 +685,7 @@
         <v>-0.005</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-8.07958665927265</v>
+        <v>-8.079586659272922</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
     </row>
@@ -697,7 +697,7 @@
         <v>0.183</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.028893431725178</v>
+        <v>7.028893431725415</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
@@ -711,7 +711,7 @@
         <v>-0.005</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-7.575892651278813</v>
+        <v>-7.575892651279069</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
     </row>
@@ -723,7 +723,7 @@
         <v>0.181</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.572950138706877</v>
+        <v>6.572950138707097</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
@@ -737,7 +737,7 @@
         <v>-0.004</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-7.012240236298661</v>
+        <v>-7.012240236298896</v>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
     </row>
@@ -749,7 +749,7 @@
         <v>0.179</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.027898178018171</v>
+        <v>6.027898178018373</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
@@ -763,7 +763,7 @@
         <v>-0.005</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-6.393243269477841</v>
+        <v>-6.393243269478055</v>
       </c>
       <c r="J12" s="2" t="inlineStr"/>
     </row>
@@ -775,7 +775,7 @@
         <v>0.175</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.401059372598906</v>
+        <v>5.401059372599084</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
@@ -789,7 +789,7 @@
         <v>-0.006</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-5.716976937741803</v>
+        <v>-5.716976937741995</v>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
     </row>
@@ -801,7 +801,7 @@
         <v>0.195</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.71361779240722</v>
+        <v>4.71361779240738</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
@@ -815,7 +815,7 @@
         <v>-0.046</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-5.028721856238556</v>
+        <v>-5.028721856238723</v>
       </c>
       <c r="J14" s="2" t="inlineStr"/>
     </row>
@@ -827,7 +827,7 @@
         <v>0.196</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.009287475109758</v>
+        <v>4.009287475109893</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
@@ -841,7 +841,7 @@
         <v>-0.051</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-4.41712383250683</v>
+        <v>-4.417123832506977</v>
       </c>
       <c r="J15" s="2" t="inlineStr"/>
     </row>
@@ -853,7 +853,7 @@
         <v>0.2</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.307426645323265</v>
+        <v>3.307426645323376</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
@@ -867,7 +867,7 @@
         <v>-0.053</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-3.819255701108032</v>
+        <v>-3.819255701108161</v>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
     </row>
@@ -879,7 +879,7 @@
         <v>0.208</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.653300798121199</v>
+        <v>2.653300798121291</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
@@ -893,7 +893,7 @@
         <v>-0.054</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-3.264097932145843</v>
+        <v>-3.264097932145953</v>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
     </row>
@@ -905,7 +905,7 @@
         <v>0.219</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2.086347594891445</v>
+        <v>2.086347594891514</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
@@ -919,7 +919,7 @@
         <v>-0.056</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-2.784916406144108</v>
+        <v>-2.784916406144201</v>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
     </row>
@@ -931,7 +931,7 @@
         <v>0.236</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.63423446573897</v>
+        <v>1.634234465739024</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
@@ -945,7 +945,7 @@
         <v>-0.054</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-2.365844796613475</v>
+        <v>-2.365844796613555</v>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
     </row>
@@ -957,7 +957,7 @@
         <v>0.259</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.289024452594703</v>
+        <v>1.289024452594747</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
@@ -971,7 +971,7 @@
         <v>-0.053</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-2.013303854424548</v>
+        <v>-2.013303854424616</v>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
     </row>
@@ -983,7 +983,7 @@
         <v>0.288</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1.050197514690689</v>
+        <v>1.050197514690726</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
@@ -997,7 +997,7 @@
         <v>-0.053</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-1.718120977408668</v>
+        <v>-1.718120977408726</v>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
     </row>
@@ -1009,7 +1009,7 @@
         <v>0.321</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.8988212056761586</v>
+        <v>0.898821205676188</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1023,7 +1023,7 @@
         <v>-0.052</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-1.477604016221681</v>
+        <v>-1.477604016221731</v>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
     </row>
@@ -1042,14 +1042,14 @@
         <v>0.119</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.6686990684179199</v>
+        <v>0.6686990684179426</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="n">
         <v>-0.05</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-1.276577897435415</v>
+        <v>-1.276577897435459</v>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
     </row>
@@ -1068,14 +1068,14 @@
         <v>0.117</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.6463963864620261</v>
+        <v>0.6463382795912319</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="n">
         <v>-0.049</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-1.124261999041012</v>
+        <v>-1.12426199904105</v>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
     </row>
@@ -1094,14 +1094,14 @@
         <v>0.116</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.642336126380789</v>
+        <v>0.642124333563486</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="n">
         <v>-0.047</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-0.9988636864891791</v>
+        <v>-0.9988636864892125</v>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
     </row>
@@ -1120,14 +1120,14 @@
         <v>0.114</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.6409470450364205</v>
+        <v>0.6409470450364418</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="n">
         <v>-0.046</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-0.8972607370704082</v>
+        <v>-0.8972607370704385</v>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
     </row>
@@ -1146,14 +1146,14 @@
         <v>0.114</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.6407060618268906</v>
+        <v>0.6407060618269116</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="n">
         <v>-0.044</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-0.816059088818663</v>
+        <v>-0.8160590888186903</v>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
     </row>
@@ -1172,14 +1172,14 @@
         <v>0.114</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.6399188058974389</v>
+        <v>0.6399188058974599</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="n">
         <v>-0.043</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-0.7629630860821905</v>
+        <v>-0.7629630860822163</v>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.113</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.6438762943578941</v>
+        <v>0.6438762943579153</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="n">
         <v>-0.042</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-0.7151312367766763</v>
+        <v>-0.7151312367766998</v>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
     </row>
@@ -1224,14 +1224,14 @@
         <v>0.113</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.6477828793666591</v>
+        <v>0.6477828793666802</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="n">
         <v>-0.041</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-0.6807526061722559</v>
+        <v>-0.6807526061722786</v>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
     </row>
@@ -1250,14 +1250,14 @@
         <v>0.113</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.646155202292188</v>
+        <v>0.6461552022922092</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="n">
         <v>-0.041</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-0.6613956525310436</v>
+        <v>-0.6613956525310655</v>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
     </row>
@@ -1276,14 +1276,14 @@
         <v>0.113</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.646703902257542</v>
+        <v>0.6467039022575634</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="n">
         <v>-0.041</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-0.6429828052813784</v>
+        <v>-0.6429828052813998</v>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
     </row>
@@ -1302,14 +1302,14 @@
         <v>0.113</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.6480587855154649</v>
+        <v>0.6480587855154866</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="n">
         <v>-0.041</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-0.6248218444355562</v>
+        <v>-0.624821844435577</v>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
     </row>
@@ -1328,14 +1328,14 @@
         <v>0.112</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.6458780073602175</v>
+        <v>0.6458780073602388</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-0.6044672676009322</v>
+        <v>-0.6044672676009522</v>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
     </row>
@@ -1354,14 +1354,14 @@
         <v>0.112</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.6428989321316021</v>
+        <v>0.6428989321316234</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-0.5933417724572829</v>
+        <v>-0.5933417724573029</v>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
     </row>
@@ -1380,14 +1380,14 @@
         <v>0.112</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.6435434051668752</v>
+        <v>0.6435434051668965</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="n">
         <v>-0.041</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-0.5825749088157435</v>
+        <v>-0.5825749088157632</v>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
     </row>
@@ -1406,14 +1406,14 @@
         <v>0.112</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.6443654378766503</v>
+        <v>0.6443654378766717</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-0.5783427845005787</v>
+        <v>-0.5783427845005983</v>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
     </row>
@@ -1432,14 +1432,14 @@
         <v>0.112</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.644702407028244</v>
+        <v>0.644702407028265</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-0.5761016262878551</v>
+        <v>-0.5761016262878742</v>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
     </row>
@@ -1458,14 +1458,14 @@
         <v>0.112</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.6435050358047893</v>
+        <v>0.6435050358048104</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-0.5691518697939983</v>
+        <v>-0.5691518697940171</v>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
     </row>
@@ -1484,14 +1484,14 @@
         <v>0.112</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.6477236150359369</v>
+        <v>0.6477236150359583</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-0.558643163137423</v>
+        <v>-0.5586431631374418</v>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
     </row>
@@ -1510,14 +1510,14 @@
         <v>0.112</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.645363754000907</v>
+        <v>0.6453637540009278</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-0.5572978286647091</v>
+        <v>-0.5572978286647275</v>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
     </row>
@@ -1536,14 +1536,14 @@
         <v>0.112</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.6459080677845703</v>
+        <v>0.6459080677845915</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-0.5409814333770863</v>
+        <v>-0.5409814333771044</v>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
     </row>
@@ -1562,14 +1562,14 @@
         <v>0.112</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.6366361436098004</v>
+        <v>0.6366361436098213</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="n">
         <v>-0.038</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-0.5323233210716096</v>
+        <v>-0.5323233210716272</v>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
     </row>
@@ -1588,14 +1588,14 @@
         <v>0.112</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.63709038149751</v>
+        <v>0.6370903814975308</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-0.5367347781953756</v>
+        <v>-0.5367347781953934</v>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
     </row>
@@ -1614,14 +1614,14 @@
         <v>0.112</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.6332347404603145</v>
+        <v>0.6332347404603353</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-0.5361772468222197</v>
+        <v>-0.5361772468222376</v>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
     </row>
@@ -1640,14 +1640,14 @@
         <v>0.112</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.626605951894936</v>
+        <v>0.6266059518949564</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-0.5158540263872722</v>
+        <v>-0.5158540263872893</v>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
     </row>
@@ -1666,14 +1666,14 @@
         <v>0.112</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.6207919094239333</v>
+        <v>0.6207919094239539</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="n">
         <v>-0.04</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-0.5185656735181352</v>
+        <v>-0.5185656735181525</v>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
     </row>
@@ -1692,14 +1692,14 @@
         <v>0.112</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.6280426860718649</v>
+        <v>0.6280426860718853</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="n">
         <v>-0.042</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-0.5066957070627257</v>
+        <v>-0.5066957070627427</v>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
     </row>
@@ -1718,14 +1718,14 @@
         <v>0.111</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.6238478604975223</v>
+        <v>0.6238478604975429</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="n">
         <v>-0.039</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-0.4948265449825728</v>
+        <v>-0.494826544982589</v>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-2.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,10 @@
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="32" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="32" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,47 +453,69 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 1 Potential (V)</t>
+          <t>Oxidation Peak 2 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 1 Current (uAmps)</t>
+          <t>Oxidation Peak 2 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Potential (V)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Potential (V)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.2</v>
+        <v>0.197</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>8.458355278595931</v>
+        <v>8.452964511420186</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
@@ -500,12 +526,26 @@
       </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10.22896086184152</v>
+        <v>10.21988309054846</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -515,7 +555,7 @@
         <v>0.198</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8.522421622476013</v>
+        <v>8.50193478769045</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
@@ -526,12 +566,26 @@
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10.05290558284226</v>
+        <v>10.14464002323753</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -541,7 +595,7 @@
         <v>0.196</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>8.483010517862189</v>
+        <v>8.50228436881123</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
@@ -552,22 +606,36 @@
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-9.831292204437668</v>
+        <v>9.853553641316953</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.194</v>
+        <v>0.196</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8.392600241338785</v>
+        <v>8.369213569819941</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
@@ -578,22 +646,36 @@
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-9.575707822972536</v>
+        <v>9.570900287826424</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.228647590563556</v>
+        <v>8.249987991603424</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
@@ -607,19 +689,33 @@
         <v>-0.006</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-9.277499618046479</v>
+        <v>9.305882232115142</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.029423058996057</v>
+        <v>8.053607057126296</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
@@ -630,12 +726,26 @@
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-8.931072139321518</v>
+        <v>8.936615326583428</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -645,7 +755,7 @@
         <v>0.188</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.746910202248039</v>
+        <v>7.753254821458425</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
@@ -659,19 +769,33 @@
         <v>-0.005</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-8.531908099452991</v>
+        <v>8.556532660912048</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.418303831176019</v>
+        <v>7.417822488724319</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
@@ -682,22 +806,36 @@
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-8.079586659272922</v>
+        <v>8.092770315596459</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.028893431725415</v>
+        <v>7.026999444180829</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
@@ -711,19 +849,33 @@
         <v>-0.005</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-7.575892651279069</v>
+        <v>7.590466122034988</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.181</v>
+        <v>0.186</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.572950138707097</v>
+        <v>6.567597466994422</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
@@ -737,19 +889,33 @@
         <v>-0.004</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-7.012240236298896</v>
+        <v>7.050904210343589</v>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.179</v>
+        <v>0.187</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.027898178018373</v>
+        <v>6.03727439062773</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
@@ -760,22 +926,36 @@
       </c>
       <c r="G12" s="2" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-6.393243269478055</v>
+        <v>6.428551537210084</v>
       </c>
       <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.175</v>
+        <v>0.189</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.401059372599084</v>
+        <v>5.468539788025467</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
@@ -786,22 +966,36 @@
       </c>
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="n">
-        <v>-0.006</v>
+        <v>-0.067</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-5.716976937741995</v>
+        <v>5.653099828593172</v>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.71361779240738</v>
+        <v>4.774647456619104</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
@@ -812,22 +1006,36 @@
       </c>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="n">
-        <v>-0.046</v>
+        <v>-0.065</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-5.028721856238723</v>
+        <v>5.114653121266762</v>
       </c>
       <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.009287475109893</v>
+        <v>4.006725811083059</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
@@ -838,12 +1046,26 @@
       </c>
       <c r="G15" s="2" t="inlineStr"/>
       <c r="H15" s="2" t="n">
-        <v>-0.051</v>
+        <v>-0.062</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-4.417123832506977</v>
+        <v>4.566343669180185</v>
       </c>
       <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -853,7 +1075,7 @@
         <v>0.2</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.307426645323376</v>
+        <v>3.36304546238074</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
@@ -864,12 +1086,26 @@
       </c>
       <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="n">
-        <v>-0.053</v>
+        <v>-0.059</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-3.819255701108161</v>
+        <v>3.972085811678801</v>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -879,7 +1115,7 @@
         <v>0.208</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.653300798121291</v>
+        <v>2.691453949953495</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
@@ -890,22 +1126,36 @@
       </c>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="n">
-        <v>-0.054</v>
+        <v>-0.056</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-3.264097932145953</v>
+        <v>3.44229709325521</v>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2.086347594891514</v>
+        <v>2.156069518692758</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
@@ -916,22 +1166,36 @@
       </c>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.053</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-2.784916406144201</v>
+        <v>2.998731795349568</v>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.634234465739024</v>
+        <v>1.621999805256001</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
@@ -942,12 +1206,26 @@
       </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v>-0.054</v>
+        <v>-0.049</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-2.365844796613555</v>
+        <v>2.556591478146578</v>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -957,7 +1235,7 @@
         <v>0.259</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.289024452594747</v>
+        <v>1.314838968351662</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
@@ -968,22 +1246,36 @@
       </c>
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="n">
-        <v>-0.053</v>
+        <v>-0.046</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-2.013303854424616</v>
+        <v>2.22148267251801</v>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1.050197514690726</v>
+        <v>1.071238989070832</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
@@ -994,22 +1286,36 @@
       </c>
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="n">
-        <v>-0.053</v>
+        <v>-0.044</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-1.718120977408726</v>
+        <v>1.930797552284171</v>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.898821205676188</v>
+        <v>0.9128564791112912</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1020,168 +1326,266 @@
       </c>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.042</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-1.477604016221731</v>
+        <v>1.680222739819206</v>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v/>
+        <v>0.353</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v/>
+        <v>0.8675177755229553</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.119</v>
+        <v/>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.6686990684179426</v>
+        <v/>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="n">
-        <v>-0.05</v>
+        <v>-0.041</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-1.276577897435459</v>
+        <v>1.475453382482931</v>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>1.050942731678579</v>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v/>
+        <v>0.382</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v/>
+        <v>0.7976753258649705</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.117</v>
+        <v/>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.6463382795912319</v>
+        <v/>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="n">
-        <v>-0.049</v>
+        <v>-0.04</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-1.12426199904105</v>
+        <v>1.351634805021684</v>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v/>
+        <v>0.411</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v/>
+        <v>0.7983891934211149</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.116</v>
+        <v/>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.642124333563486</v>
+        <v/>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="n">
-        <v>-0.047</v>
+        <v>-0.039</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-0.9988636864892125</v>
+        <v>1.228586204158056</v>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v/>
+        <v>0.436</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v/>
+        <v>0.7554470003319531</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.114</v>
+        <v/>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.6409470450364418</v>
+        <v/>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="n">
-        <v>-0.046</v>
+        <v>-0.037</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-0.8972607370704385</v>
+        <v>1.111690458936931</v>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v/>
+        <v>0.472</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v/>
+        <v>0.8100814926840354</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.114</v>
+        <v/>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.6407060618269116</v>
+        <v/>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.034</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-0.8160590888186903</v>
+        <v>1.035756880875162</v>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v/>
+        <v>0.494</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v/>
+        <v>0.8139422537025169</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.114</v>
+        <v/>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.6399188058974599</v>
+        <v/>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="n">
-        <v>-0.043</v>
+        <v>-0.036</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-0.7629630860822163</v>
+        <v>1.005552770338386</v>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1195,19 +1599,33 @@
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.113</v>
+        <v/>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.6438762943579153</v>
+        <v/>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="n">
-        <v>-0.042</v>
+        <v>-0.036</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-0.7151312367766998</v>
+        <v>0.9381810362876212</v>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1221,19 +1639,33 @@
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.113</v>
+        <v/>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.6477828793666802</v>
+        <v/>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="n">
-        <v>-0.041</v>
+        <v>-0.032</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-0.6807526061722786</v>
+        <v>0.9133488737977852</v>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1247,19 +1679,33 @@
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.113</v>
+        <v/>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.6461552022922092</v>
+        <v/>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="n">
-        <v>-0.041</v>
+        <v>-0.034</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-0.6613956525310655</v>
+        <v>0.9074764987158978</v>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1273,19 +1719,33 @@
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.113</v>
+        <v/>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.6467039022575634</v>
+        <v/>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="n">
-        <v>-0.041</v>
+        <v>-0.032</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-0.6429828052813998</v>
+        <v>0.87117445560734</v>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1299,19 +1759,33 @@
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.113</v>
+        <v/>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.6480587855154866</v>
+        <v/>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="n">
-        <v>-0.041</v>
+        <v>-0.033</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-0.624821844435577</v>
+        <v>0.8457770828071394</v>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1325,19 +1799,33 @@
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.112</v>
+        <v/>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.6458780073602388</v>
+        <v/>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.032</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-0.6044672676009522</v>
+        <v>0.8280626699973833</v>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1351,19 +1839,33 @@
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.112</v>
+        <v/>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.6428989321316234</v>
+        <v/>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.034</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-0.5933417724573029</v>
+        <v>0.8094224910486713</v>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1377,19 +1879,33 @@
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.6435434051668965</v>
+        <v>1.016859722724392</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="n">
-        <v>-0.041</v>
+        <v>-0.036</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-0.5825749088157632</v>
+        <v>0.7576776312122353</v>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1403,19 +1919,33 @@
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.6443654378766717</v>
+        <v>1.021962381643036</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.033</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-0.5783427845005983</v>
+        <v>0.7698969472240722</v>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1429,19 +1959,33 @@
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.644702407028265</v>
+        <v>1.025135046528159</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.034</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-0.5761016262878742</v>
+        <v>0.8084453802543503</v>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1455,19 +1999,33 @@
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.6435050358048104</v>
+        <v>1.02075707450855</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.033</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-0.5691518697940171</v>
+        <v>0.7700539245987889</v>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1481,19 +2039,33 @@
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.6477236150359583</v>
+        <v>1.028089491559588</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-0.5586431631374418</v>
+        <v>0.7086446988400394</v>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1507,19 +2079,33 @@
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.6453637540009278</v>
+        <v>1.022564210392282</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.034</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-0.5572978286647275</v>
+        <v>0.8203491785034394</v>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1533,19 +2119,33 @@
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.6459080677845915</v>
+        <v>1.025993908639742</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.031</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-0.5409814333771044</v>
+        <v>0.7370116858095672</v>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1559,19 +2159,33 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.6366361436098213</v>
+        <v>1.004992348441249</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="n">
-        <v>-0.038</v>
+        <v>-0.029</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-0.5323233210716272</v>
+        <v>0.7315209854067739</v>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1585,19 +2199,33 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.6370903814975308</v>
+        <v>1.006876747304725</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-0.5367347781953934</v>
+        <v>0.7317891638719943</v>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1611,19 +2239,33 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.6332347404603353</v>
+        <v>1.003917913336251</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.033</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-0.5361772468222376</v>
+        <v>0.734333930003375</v>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1637,19 +2279,33 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.6266059518949564</v>
+        <v>0.9840522605721808</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.031</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-0.5158540263872893</v>
+        <v>0.712531337522546</v>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1663,19 +2319,33 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.6207919094239539</v>
+        <v>0.9922325435326844</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.032</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-0.5185656735181525</v>
+        <v>0.7446233207713325</v>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1689,19 +2359,33 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.6280426860718853</v>
+        <v>0.9940844323259658</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="n">
-        <v>-0.042</v>
+        <v>-0.034</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-0.5066957070627427</v>
+        <v>0.6481026384176704</v>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1715,19 +2399,33 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.6238478604975429</v>
+        <v>0.9715541118379843</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="n">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-0.494826544982589</v>
+        <v>0.6801157563346143</v>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n">
+        <v>-0.282</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0.7714374981040595</v>
+      </c>
+      <c r="P49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
